--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristofer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/cristofer_petrobras_com_br/Documents/10 - GitHub/vba-pump-performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9227B0-C5FD-8D45-A7D7-66C3BEFC4B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="13_ncr:1_{DC9227B0-C5FD-8D45-A7D7-66C3BEFC4B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6B30303-0857-441D-AF5B-3C8642C7E138}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="500" windowWidth="24520" windowHeight="18540" activeTab="1" xr2:uid="{F5870556-3D12-524F-AA7B-8844FE15EFB6}"/>
+    <workbookView xWindow="570" yWindow="-15630" windowWidth="18300" windowHeight="14670" activeTab="1" xr2:uid="{F5870556-3D12-524F-AA7B-8844FE15EFB6}"/>
   </bookViews>
   <sheets>
     <sheet name="GettingStarted" sheetId="2" r:id="rId1"/>
@@ -1083,38 +1083,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1255,10 +1255,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10651463495249423"/>
-          <c:y val="0.14881481716963249"/>
-          <c:w val="0.79844563059256946"/>
-          <c:h val="0.82169532092462161"/>
+          <c:x val="0.10628879376321762"/>
+          <c:y val="0.15183194458640492"/>
+          <c:w val="0.79675269974915841"/>
+          <c:h val="0.81808030498730466"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1338,7 +1338,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{00000009-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1400,13 +1400,13 @@
                 <c:v>225.41626787699471</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>214.04435632331533</c:v>
+                <c:v>214.04435632331536</c:v>
               </c:pt>
               <c:pt idx="3">
                 <c:v>182.64865793923957</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>177.33275654867086</c:v>
+                <c:v>177.33275654867089</c:v>
               </c:pt>
               <c:pt idx="5">
                 <c:v>165.16230397130806</c:v>
@@ -1416,7 +1416,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{0000000A-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1485,7 +1485,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{0000000B-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1553,7 +1553,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{0000000C-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1598,7 +1598,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{0000000D-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1643,7 +1643,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{0000000E-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1655,8 +1655,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1403510511"/>
-        <c:axId val="1403471567"/>
+        <c:axId val="442106223"/>
+        <c:axId val="442109551"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1735,7 +1735,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{0000000F-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1797,13 +1797,13 @@
                 <c:v>51.554520529897488</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>78.016006583620154</c:v>
+                <c:v>78.016006583620168</c:v>
               </c:pt>
               <c:pt idx="3">
                 <c:v>104.37288011141651</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>113.77777767788534</c:v>
+                <c:v>113.77777767788535</c:v>
               </c:pt>
               <c:pt idx="5">
                 <c:v>124.31203168120408</c:v>
@@ -1813,7 +1813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{00000010-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1882,7 +1882,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{00000011-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1928,29 +1928,29 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="6"/>
               <c:pt idx="0">
-                <c:v>44.443291317960089</c:v>
+                <c:v>44.443291317960082</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>51.559000090455399</c:v>
+                <c:v>51.559000090455406</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>78.00528676526595</c:v>
+                <c:v>78.005286765265964</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>104.41178305203437</c:v>
+                <c:v>104.41178305203439</c:v>
               </c:pt>
               <c:pt idx="4">
                 <c:v>113.73309592078016</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>124.32568854217222</c:v>
+                <c:v>124.32568854217223</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{00000012-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1995,7 +1995,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{00000013-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2033,14 +2033,14 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>105.73689031898655</c:v>
+                <c:v>105.73689031898658</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-89B5-C844-A4FE-00522BC6D421}"/>
+              <c16:uniqueId val="{00000014-87E2-45C6-92CA-4EFDA76587EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2052,11 +2052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1412803887"/>
-        <c:axId val="1412814575"/>
+        <c:axId val="442108719"/>
+        <c:axId val="442106224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1403510511"/>
+        <c:axId val="442106223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,12 +2081,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1403471567"/>
+        <c:crossAx val="442109551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1403471567"/>
+        <c:axId val="442109551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -2126,12 +2126,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1403510511"/>
+        <c:crossAx val="442106223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1412814575"/>
+        <c:axId val="442106224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="580"/>
@@ -2161,12 +2161,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1412803887"/>
+        <c:crossAx val="442108719"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1412803887"/>
+        <c:axId val="442108719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1412814575"/>
+        <c:crossAx val="442106224"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -2244,10 +2244,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10651463495249423"/>
-          <c:y val="2.0801170632833117E-2"/>
-          <c:w val="0.79844563059256946"/>
-          <c:h val="0.69876709946299476"/>
+          <c:x val="0.10628879376321762"/>
+          <c:y val="2.1143503942002272E-2"/>
+          <c:w val="0.79675269974915841"/>
+          <c:h val="0.71026699327763054"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2330,7 +2330,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5493-A340-8A9A-F8E80CCCBEAD}"/>
+              <c16:uniqueId val="{00000009-3AD4-41A4-AC9E-DF7894314FEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2411,7 +2411,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5493-A340-8A9A-F8E80CCCBEAD}"/>
+              <c16:uniqueId val="{0000000A-3AD4-41A4-AC9E-DF7894314FEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2483,7 +2483,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5493-A340-8A9A-F8E80CCCBEAD}"/>
+              <c16:uniqueId val="{0000000B-3AD4-41A4-AC9E-DF7894314FEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2554,7 +2554,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5493-A340-8A9A-F8E80CCCBEAD}"/>
+              <c16:uniqueId val="{0000000C-3AD4-41A4-AC9E-DF7894314FEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2602,7 +2602,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5493-A340-8A9A-F8E80CCCBEAD}"/>
+              <c16:uniqueId val="{0000000D-3AD4-41A4-AC9E-DF7894314FEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2650,7 +2650,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5493-A340-8A9A-F8E80CCCBEAD}"/>
+              <c16:uniqueId val="{0000000E-3AD4-41A4-AC9E-DF7894314FEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2662,11 +2662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1360995743"/>
-        <c:axId val="1360986303"/>
+        <c:axId val="442107471"/>
+        <c:axId val="442108303"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1360995743"/>
+        <c:axId val="442107471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,12 +2704,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1360986303"/>
+        <c:crossAx val="442108303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1360986303"/>
+        <c:axId val="442108303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2749,7 +2749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1360995743"/>
+        <c:crossAx val="442107471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2801,141 +2801,27 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1438073087"/>
-        <c:axId val="1438058303"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1438073087"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1438058303"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1438058303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1438073087"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:extLst>
-      <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-        <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000">
-              <a:tint val="75000"/>
-            </a:sysClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a14:hiddenLine>
-      </a:ext>
-    </a:extLst>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Performance B-553E">
+        <xdr:cNvPr id="7" name="Performance B-553E">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0FEEED-14DA-3149-B9CE-431A4D7C4871}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B38D05-F411-4666-8B4A-8897EF1FDFE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,22 +2842,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Efficiency B-553E">
+        <xdr:cNvPr id="9" name="Efficiency B-553E">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C743C2E-0446-114A-8287-4EC0A3295112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD49982-3A89-48A3-9002-B990AF76AED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,87 +2875,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6026727E-D480-6044-B8E5-1D54619E1EA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="2" name="chart">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79619895-77CD-D347-B7B1-19DAE167F585}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="0"/>
-          <a:ext cx="7658100" cy="8509000"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3376,29 +3182,29 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -3417,10 +3223,10 @@
   <dimension ref="B1:L132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScaleSheetLayoutView="84" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="5" customWidth="1"/>
@@ -3433,8 +3239,8 @@
     <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -3446,21 +3252,21 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9"/>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -3472,33 +3278,33 @@
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="2:11" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18">
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="97"/>
+      <c r="E6" s="105"/>
       <c r="F6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
       <c r="J6" s="20"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18">
         <f>B6+1</f>
         <v>2</v>
@@ -3506,18 +3312,18 @@
       <c r="C7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
       <c r="J7" s="20"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="18">
         <f t="shared" ref="B8:B69" si="0">B7+1</f>
         <v>3</v>
@@ -3525,8 +3331,8 @@
       <c r="C8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
       <c r="F8" s="19" t="s">
         <v>10</v>
       </c>
@@ -3536,7 +3342,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3544,18 +3350,18 @@
       <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
       <c r="J9" s="20"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3563,8 +3369,8 @@
       <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -3572,7 +3378,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3580,8 +3386,8 @@
       <c r="C11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -3589,7 +3395,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="2:11" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3604,7 +3410,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3623,7 +3429,7 @@
       <c r="J13" s="23"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3637,10 +3443,10 @@
       <c r="E14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="104"/>
+      <c r="H14" s="102"/>
       <c r="I14" s="29" t="s">
         <v>18</v>
       </c>
@@ -3649,7 +3455,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3673,7 +3479,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3697,7 +3503,7 @@
       <c r="J16" s="36"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3712,7 +3518,7 @@
       <c r="J17" s="36"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3733,7 +3539,7 @@
       <c r="J18" s="36"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3760,7 +3566,7 @@
       <c r="J19" s="36"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3780,7 +3586,7 @@
       <c r="G20" s="43"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3798,7 +3604,7 @@
       <c r="G21" s="43"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="2:11" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3813,7 +3619,7 @@
       <c r="J22" s="21"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3832,7 +3638,7 @@
       <c r="J23" s="23"/>
       <c r="K23" s="25"/>
     </row>
-    <row r="24" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3840,18 +3646,18 @@
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105" t="s">
+      <c r="G24" s="103"/>
+      <c r="H24" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="105"/>
+      <c r="I24" s="103"/>
       <c r="J24" s="48"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="2:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3882,7 +3688,7 @@
       </c>
       <c r="K25" s="53"/>
     </row>
-    <row r="26" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3915,7 +3721,7 @@
       </c>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3949,7 +3755,7 @@
       </c>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3983,7 +3789,7 @@
       </c>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3994,29 +3800,27 @@
       <c r="D29" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="59">
-        <v>75</v>
-      </c>
+      <c r="E29" s="59"/>
       <c r="F29" s="56">
         <v>61.27</v>
       </c>
       <c r="G29" s="56">
         <v>60.8</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="57" t="str">
         <f>IF(AND(RatedPointEfficiency&lt;&gt;0,RatedPointEfficiencyPoly&lt;&gt;0),1-RatedPointEfficiency/RatedPointEfficiencyPoly,"-")</f>
-        <v>-0.22409009303084693</v>
-      </c>
-      <c r="I29" s="57">
+        <v>-</v>
+      </c>
+      <c r="I29" s="57" t="str">
         <f>IF(AND(RatedPointEfficiency&lt;&gt;0,RatedPointEfficiencyPoly&lt;&gt;0),1-RatedPointEfficiency/RatedPointEfficiencySpline,"-")</f>
-        <v>-0.23355263157894735</v>
+        <v>-</v>
       </c>
       <c r="J29" s="58" t="s">
         <v>21</v>
       </c>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4035,7 +3839,7 @@
       <c r="J30" s="60"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4054,7 +3858,7 @@
       <c r="J31" s="60"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4087,7 +3891,7 @@
       </c>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="2:12" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4102,7 +3906,7 @@
       <c r="J33" s="21"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="2:12" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4119,7 +3923,7 @@
       <c r="J34" s="23"/>
       <c r="K34" s="25"/>
     </row>
-    <row r="35" spans="2:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B35" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4150,7 +3954,7 @@
       </c>
       <c r="K35" s="67"/>
     </row>
-    <row r="36" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4167,7 +3971,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="17"/>
     </row>
-    <row r="37" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4184,7 +3988,7 @@
       <c r="J37" s="70"/>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4201,7 +4005,7 @@
       <c r="J38" s="70"/>
       <c r="K38" s="17"/>
     </row>
-    <row r="39" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4218,7 +4022,7 @@
       <c r="J39" s="70"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="18">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4235,7 +4039,7 @@
       <c r="J40" s="70"/>
       <c r="K40" s="17"/>
     </row>
-    <row r="41" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="18">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4252,7 +4056,7 @@
       <c r="J41" s="20"/>
       <c r="K41" s="17"/>
     </row>
-    <row r="42" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="18">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4269,7 +4073,7 @@
       <c r="J42" s="70"/>
       <c r="K42" s="17"/>
     </row>
-    <row r="43" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="18">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4286,7 +4090,7 @@
       <c r="J43" s="70"/>
       <c r="K43" s="17"/>
     </row>
-    <row r="44" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="18">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4303,7 +4107,7 @@
       <c r="J44" s="70"/>
       <c r="K44" s="17"/>
     </row>
-    <row r="45" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="18">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4320,7 +4124,7 @@
       <c r="J45" s="70"/>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" spans="2:12" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="18">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4335,7 +4139,7 @@
       <c r="J46" s="21"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="2:12" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="18">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4352,7 +4156,7 @@
       <c r="J47" s="23"/>
       <c r="K47" s="25"/>
     </row>
-    <row r="48" spans="2:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B48" s="18">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4384,7 +4188,7 @@
       <c r="K48" s="67"/>
       <c r="L48" s="73"/>
     </row>
-    <row r="49" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="18">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4415,7 +4219,7 @@
       </c>
       <c r="K49" s="17"/>
     </row>
-    <row r="50" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="18">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4446,7 +4250,7 @@
       </c>
       <c r="K50" s="17"/>
     </row>
-    <row r="51" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="18">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4477,7 +4281,7 @@
       </c>
       <c r="K51" s="17"/>
     </row>
-    <row r="52" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="18">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4508,7 +4312,7 @@
       </c>
       <c r="K52" s="17"/>
     </row>
-    <row r="53" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4539,7 +4343,7 @@
       </c>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="18">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4570,7 +4374,7 @@
       </c>
       <c r="K54" s="17"/>
     </row>
-    <row r="55" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="18">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4601,7 +4405,7 @@
       </c>
       <c r="K55" s="17"/>
     </row>
-    <row r="56" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="18">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4620,7 +4424,7 @@
       <c r="J56" s="76"/>
       <c r="K56" s="17"/>
     </row>
-    <row r="57" spans="2:12" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B57" s="18">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4635,7 +4439,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="14"/>
     </row>
-    <row r="58" spans="2:12" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B58" s="18">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4652,7 +4456,7 @@
       <c r="J58" s="23"/>
       <c r="K58" s="25"/>
     </row>
-    <row r="59" spans="2:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B59" s="18">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4684,7 +4488,7 @@
       <c r="K59" s="67"/>
       <c r="L59" s="73"/>
     </row>
-    <row r="60" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="18">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4715,7 +4519,7 @@
       </c>
       <c r="K60" s="17"/>
     </row>
-    <row r="61" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="18">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4733,20 +4537,20 @@
         <v>225.41626787699471</v>
       </c>
       <c r="G61" s="78">
-        <v>214.04435632331533</v>
+        <v>214.04435632331536</v>
       </c>
       <c r="H61" s="78">
         <v>182.64865793923957</v>
       </c>
       <c r="I61" s="78">
-        <v>177.33275654867086</v>
+        <v>177.33275654867089</v>
       </c>
       <c r="J61" s="78">
         <v>165.16230397130806</v>
       </c>
       <c r="K61" s="17"/>
     </row>
-    <row r="62" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="18">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4764,20 +4568,20 @@
         <v>51.554520529897488</v>
       </c>
       <c r="G62" s="78">
-        <v>78.016006583620154</v>
+        <v>78.016006583620168</v>
       </c>
       <c r="H62" s="78">
         <v>104.37288011141651</v>
       </c>
       <c r="I62" s="78">
-        <v>113.77777767788534</v>
+        <v>113.77777767788535</v>
       </c>
       <c r="J62" s="78">
         <v>124.31203168120408</v>
       </c>
       <c r="K62" s="17"/>
     </row>
-    <row r="63" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="18">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4808,7 +4612,7 @@
       </c>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="18">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4839,7 +4643,7 @@
       </c>
       <c r="K64" s="17"/>
     </row>
-    <row r="65" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="18">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4870,7 +4674,7 @@
       </c>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="18">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4901,7 +4705,7 @@
       </c>
       <c r="K66" s="17"/>
     </row>
-    <row r="67" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="18">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4932,7 +4736,7 @@
       </c>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="18">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4963,7 +4767,7 @@
       </c>
       <c r="K68" s="17"/>
     </row>
-    <row r="69" spans="2:11" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B69" s="18">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4978,7 +4782,7 @@
       <c r="J69" s="20"/>
       <c r="K69" s="17"/>
     </row>
-    <row r="70" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B70" s="80">
         <v>1</v>
       </c>
@@ -4994,7 +4798,7 @@
       <c r="J70" s="23"/>
       <c r="K70" s="25"/>
     </row>
-    <row r="71" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="81">
         <f t="shared" ref="B71:B132" si="1">B70+1</f>
         <v>2</v>
@@ -5009,7 +4813,7 @@
       <c r="J71" s="48"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="81">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -5028,7 +4832,7 @@
       <c r="J72" s="20"/>
       <c r="K72" s="17"/>
     </row>
-    <row r="73" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="81">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5043,10 +4847,10 @@
         <v>81</v>
       </c>
       <c r="F73" s="20"/>
-      <c r="G73" s="98" t="s">
+      <c r="G73" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="H73" s="99"/>
+      <c r="H73" s="96"/>
       <c r="I73" s="85" t="s">
         <v>18</v>
       </c>
@@ -5055,7 +4859,7 @@
       </c>
       <c r="K73" s="17"/>
     </row>
-    <row r="74" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="81">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5066,15 +4870,15 @@
       <c r="D74" s="70"/>
       <c r="E74" s="70"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="100" t="s">
+      <c r="G74" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="H74" s="101"/>
+      <c r="H74" s="98"/>
       <c r="I74" s="70"/>
       <c r="J74" s="70"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="81">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5085,15 +4889,15 @@
       <c r="D75" s="70"/>
       <c r="E75" s="70"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="100" t="s">
+      <c r="G75" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="H75" s="101"/>
+      <c r="H75" s="98"/>
       <c r="I75" s="70"/>
       <c r="J75" s="70"/>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="81">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5104,15 +4908,15 @@
       <c r="D76" s="70"/>
       <c r="E76" s="70"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="100" t="s">
+      <c r="G76" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="H76" s="101"/>
+      <c r="H76" s="98"/>
       <c r="I76" s="70"/>
       <c r="J76" s="70"/>
       <c r="K76" s="17"/>
     </row>
-    <row r="77" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="81">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5129,7 +4933,7 @@
       <c r="J77" s="20"/>
       <c r="K77" s="17"/>
     </row>
-    <row r="78" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="81">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5146,7 +4950,7 @@
       <c r="J78" s="20"/>
       <c r="K78" s="17"/>
     </row>
-    <row r="79" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="81">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -5163,7 +4967,7 @@
       <c r="J79" s="20"/>
       <c r="K79" s="17"/>
     </row>
-    <row r="80" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="81">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -5180,7 +4984,7 @@
       <c r="J80" s="20"/>
       <c r="K80" s="17"/>
     </row>
-    <row r="81" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B81" s="81">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -5195,7 +4999,7 @@
       <c r="J81" s="21"/>
       <c r="K81" s="14"/>
     </row>
-    <row r="82" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B82" s="81">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5212,7 +5016,7 @@
       <c r="J82" s="48"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="87">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -5227,7 +5031,7 @@
       <c r="J83" s="48"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="87">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -5242,7 +5046,7 @@
       <c r="J84" s="20"/>
       <c r="K84" s="17"/>
     </row>
-    <row r="85" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="87">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -5257,7 +5061,7 @@
       <c r="J85" s="20"/>
       <c r="K85" s="17"/>
     </row>
-    <row r="86" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="87">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -5272,7 +5076,7 @@
       <c r="J86" s="20"/>
       <c r="K86" s="17"/>
     </row>
-    <row r="87" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="87">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -5287,7 +5091,7 @@
       <c r="J87" s="20"/>
       <c r="K87" s="17"/>
     </row>
-    <row r="88" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="87">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -5302,7 +5106,7 @@
       <c r="J88" s="20"/>
       <c r="K88" s="17"/>
     </row>
-    <row r="89" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="87">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -5317,7 +5121,7 @@
       <c r="J89" s="20"/>
       <c r="K89" s="17"/>
     </row>
-    <row r="90" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="87">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -5332,7 +5136,7 @@
       <c r="J90" s="20"/>
       <c r="K90" s="17"/>
     </row>
-    <row r="91" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="87">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -5347,7 +5151,7 @@
       <c r="J91" s="20"/>
       <c r="K91" s="17"/>
     </row>
-    <row r="92" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="87">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -5362,7 +5166,7 @@
       <c r="J92" s="20"/>
       <c r="K92" s="17"/>
     </row>
-    <row r="93" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="87">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -5377,7 +5181,7 @@
       <c r="J93" s="20"/>
       <c r="K93" s="17"/>
     </row>
-    <row r="94" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="87">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -5392,7 +5196,7 @@
       <c r="J94" s="20"/>
       <c r="K94" s="17"/>
     </row>
-    <row r="95" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="87">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -5407,7 +5211,7 @@
       <c r="J95" s="20"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="87">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -5422,7 +5226,7 @@
       <c r="J96" s="20"/>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="87">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -5437,7 +5241,7 @@
       <c r="J97" s="20"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="87">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -5452,7 +5256,7 @@
       <c r="J98" s="20"/>
       <c r="K98" s="17"/>
     </row>
-    <row r="99" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="87">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -5467,7 +5271,7 @@
       <c r="J99" s="20"/>
       <c r="K99" s="17"/>
     </row>
-    <row r="100" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="87">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -5482,7 +5286,7 @@
       <c r="J100" s="20"/>
       <c r="K100" s="17"/>
     </row>
-    <row r="101" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="87">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -5497,7 +5301,7 @@
       <c r="J101" s="20"/>
       <c r="K101" s="17"/>
     </row>
-    <row r="102" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="87">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -5512,7 +5316,7 @@
       <c r="J102" s="20"/>
       <c r="K102" s="17"/>
     </row>
-    <row r="103" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="87">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -5527,7 +5331,7 @@
       <c r="J103" s="20"/>
       <c r="K103" s="17"/>
     </row>
-    <row r="104" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="87">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -5542,7 +5346,7 @@
       <c r="J104" s="20"/>
       <c r="K104" s="17"/>
     </row>
-    <row r="105" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="87">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5557,7 +5361,7 @@
       <c r="J105" s="20"/>
       <c r="K105" s="17"/>
     </row>
-    <row r="106" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="87">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5572,7 +5376,7 @@
       <c r="J106" s="20"/>
       <c r="K106" s="17"/>
     </row>
-    <row r="107" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="87">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5587,7 +5391,7 @@
       <c r="J107" s="20"/>
       <c r="K107" s="17"/>
     </row>
-    <row r="108" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="87">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5602,7 +5406,7 @@
       <c r="J108" s="20"/>
       <c r="K108" s="17"/>
     </row>
-    <row r="109" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="87">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5617,7 +5421,7 @@
       <c r="J109" s="20"/>
       <c r="K109" s="17"/>
     </row>
-    <row r="110" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="87">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5632,7 +5436,7 @@
       <c r="J110" s="20"/>
       <c r="K110" s="17"/>
     </row>
-    <row r="111" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="87">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5647,7 +5451,7 @@
       <c r="J111" s="91"/>
       <c r="K111" s="17"/>
     </row>
-    <row r="112" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="87">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5662,7 +5466,7 @@
       <c r="J112" s="20"/>
       <c r="K112" s="17"/>
     </row>
-    <row r="113" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="87">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5677,7 +5481,7 @@
       <c r="J113" s="20"/>
       <c r="K113" s="17"/>
     </row>
-    <row r="114" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="87">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5692,7 +5496,7 @@
       <c r="J114" s="20"/>
       <c r="K114" s="17"/>
     </row>
-    <row r="115" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="87">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5700,7 +5504,7 @@
       <c r="C115" s="43"/>
       <c r="K115" s="17"/>
     </row>
-    <row r="116" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="87">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5708,7 +5512,7 @@
       <c r="C116" s="43"/>
       <c r="K116" s="17"/>
     </row>
-    <row r="117" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="87">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5716,7 +5520,7 @@
       <c r="C117" s="43"/>
       <c r="K117" s="17"/>
     </row>
-    <row r="118" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="87">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5724,7 +5528,7 @@
       <c r="C118" s="43"/>
       <c r="K118" s="17"/>
     </row>
-    <row r="119" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="87">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -5732,7 +5536,7 @@
       <c r="C119" s="43"/>
       <c r="K119" s="17"/>
     </row>
-    <row r="120" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="87">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -5740,7 +5544,7 @@
       <c r="C120" s="43"/>
       <c r="K120" s="17"/>
     </row>
-    <row r="121" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="87">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -5748,7 +5552,7 @@
       <c r="C121" s="43"/>
       <c r="K121" s="17"/>
     </row>
-    <row r="122" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="87">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -5756,7 +5560,7 @@
       <c r="C122" s="43"/>
       <c r="K122" s="17"/>
     </row>
-    <row r="123" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="87">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -5764,7 +5568,7 @@
       <c r="C123" s="43"/>
       <c r="K123" s="17"/>
     </row>
-    <row r="124" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="87">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -5772,7 +5576,7 @@
       <c r="C124" s="43"/>
       <c r="K124" s="17"/>
     </row>
-    <row r="125" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="87">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -5780,7 +5584,7 @@
       <c r="C125" s="43"/>
       <c r="K125" s="17"/>
     </row>
-    <row r="126" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="87">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -5788,7 +5592,7 @@
       <c r="C126" s="43"/>
       <c r="K126" s="17"/>
     </row>
-    <row r="127" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="87">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -5796,7 +5600,7 @@
       <c r="C127" s="43"/>
       <c r="K127" s="17"/>
     </row>
-    <row r="128" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="87">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -5804,7 +5608,7 @@
       <c r="C128" s="43"/>
       <c r="K128" s="17"/>
     </row>
-    <row r="129" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="87">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -5812,7 +5616,7 @@
       <c r="C129" s="43"/>
       <c r="K129" s="17"/>
     </row>
-    <row r="130" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="87">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -5820,7 +5624,7 @@
       <c r="C130" s="43"/>
       <c r="K130" s="17"/>
     </row>
-    <row r="131" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="87">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -5829,7 +5633,7 @@
       <c r="J131" s="92"/>
       <c r="K131" s="17"/>
     </row>
-    <row r="132" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B132" s="93">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -5847,6 +5651,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="G73:H73"/>
     <mergeCell ref="G74:H74"/>
     <mergeCell ref="G75:H75"/>
@@ -5858,12 +5668,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="H27">
     <cfRule type="expression" dxfId="7" priority="6">
